--- a/runs/run622/NotionalETEOutput622.xlsx
+++ b/runs/run622/NotionalETEOutput622.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER0_State_Update</t>
+    <t>Missile_HIGHWIND2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0_422.MISSILE_BRAVER0_422</t>
+    <t>MISSILE_HIGHWIND2_130.MISSILE_HIGHWIND2_130</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0</t>
+    <t>MISSILE_HIGHWIND2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1568.268328876033</v>
+        <v>-1573.932836832245</v>
       </c>
       <c r="J2">
-        <v>2046.294613087417</v>
+        <v>2042.760034427579</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1450.535249851099</v>
+        <v>-1532.401281290825</v>
       </c>
       <c r="J3">
-        <v>1881.857280712327</v>
+        <v>1973.821802157195</v>
       </c>
       <c r="K3">
-        <v>314.9665251482256</v>
+        <v>313.3532273864141</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1456.157619243726</v>
+        <v>-1385.034374745148</v>
       </c>
       <c r="J4">
-        <v>1850.036250411355</v>
+        <v>1923.171576826667</v>
       </c>
       <c r="K4">
-        <v>609.937482759488</v>
+        <v>589.3237940778376</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1395.275783896147</v>
+        <v>-1377.76568898873</v>
       </c>
       <c r="J5">
-        <v>1779.92405102264</v>
+        <v>1820.250366679895</v>
       </c>
       <c r="K5">
-        <v>855.9511901792616</v>
+        <v>882.0569237292364</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1321.673110292213</v>
+        <v>-1347.591426055887</v>
       </c>
       <c r="J6">
-        <v>1790.660598687048</v>
+        <v>1824.508269045988</v>
       </c>
       <c r="K6">
-        <v>1101.672770422701</v>
+        <v>1116.889618399373</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1322.139296328113</v>
+        <v>-1383.759903805794</v>
       </c>
       <c r="J7">
-        <v>1844.453559279785</v>
+        <v>1711.184947501587</v>
       </c>
       <c r="K7">
-        <v>1299.202983429245</v>
+        <v>1423.6126148672</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1263.767897056633</v>
+        <v>-1279.354442687662</v>
       </c>
       <c r="J8">
-        <v>1786.080221885592</v>
+        <v>1664.63406141735</v>
       </c>
       <c r="K8">
-        <v>1602.342014472796</v>
+        <v>1606.635376106578</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.93390145043608</v>
+        <v>-96.80345382735027</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1322.583834764045</v>
+        <v>-1216.294525630473</v>
       </c>
       <c r="J9">
-        <v>1727.342742598523</v>
+        <v>1702.332948810851</v>
       </c>
       <c r="K9">
-        <v>1814.313918426332</v>
+        <v>1782.454704076247</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>221.0547050596672</v>
+        <v>218.6428495184313</v>
       </c>
       <c r="G10">
-        <v>-82.93264679550381</v>
+        <v>-84.8244622244152</v>
       </c>
       <c r="H10">
-        <v>856.7630232656452</v>
+        <v>879.2237884265037</v>
       </c>
       <c r="I10">
-        <v>-1207.471798337617</v>
+        <v>-1209.386624231504</v>
       </c>
       <c r="J10">
-        <v>1670.443849816942</v>
+        <v>1574.987233960498</v>
       </c>
       <c r="K10">
-        <v>2074.935494659199</v>
+        <v>1929.472287256642</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>168.8909973181794</v>
+        <v>168.0315324322179</v>
       </c>
       <c r="G11">
-        <v>-69.59823468021082</v>
+        <v>-64.79155124327688</v>
       </c>
       <c r="H11">
-        <v>1060.90153000089</v>
+        <v>1104.914221032281</v>
       </c>
       <c r="I11">
-        <v>-1229.013752135569</v>
+        <v>-1219.339708620539</v>
       </c>
       <c r="J11">
-        <v>1635.269936958703</v>
+        <v>1623.941596734798</v>
       </c>
       <c r="K11">
-        <v>2279.829377766795</v>
+        <v>2278.700341248286</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>136.589801326329</v>
+        <v>141.6091708958187</v>
       </c>
       <c r="G12">
-        <v>-51.13518118871643</v>
+        <v>-51.87574557452294</v>
       </c>
       <c r="H12">
-        <v>1152.707393379922</v>
+        <v>1199.218047149132</v>
       </c>
       <c r="I12">
-        <v>-1161.178103281463</v>
+        <v>-1178.225207015119</v>
       </c>
       <c r="J12">
-        <v>1541.341967288161</v>
+        <v>1460.91433007086</v>
       </c>
       <c r="K12">
-        <v>2357.100126512834</v>
+        <v>2402.621545987128</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>127.6648954902638</v>
+        <v>126.0659617424452</v>
       </c>
       <c r="G13">
-        <v>-33.95113418061799</v>
+        <v>-33.54213581183988</v>
       </c>
       <c r="H13">
-        <v>1283.954351833688</v>
+        <v>1203.44185758908</v>
       </c>
       <c r="I13">
-        <v>-1150.485828296958</v>
+        <v>-1134.157735734678</v>
       </c>
       <c r="J13">
-        <v>1415.050142916183</v>
+        <v>1526.446517435077</v>
       </c>
       <c r="K13">
-        <v>2538.767986329841</v>
+        <v>2500.010993656757</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>110.6005327556386</v>
+        <v>106.204200231357</v>
       </c>
       <c r="G14">
-        <v>-17.43570928860342</v>
+        <v>-17.65931303377786</v>
       </c>
       <c r="H14">
-        <v>1383.743796296699</v>
+        <v>1391.413130344227</v>
       </c>
       <c r="I14">
-        <v>-1122.774237381799</v>
+        <v>-1096.692700670051</v>
       </c>
       <c r="J14">
-        <v>1376.338167836195</v>
+        <v>1465.877555296956</v>
       </c>
       <c r="K14">
-        <v>2756.711219806034</v>
+        <v>2770.036825745915</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>103.9039311113399</v>
+        <v>98.1905727204979</v>
       </c>
       <c r="G15">
-        <v>-0.9523225427036603</v>
+        <v>-0.9248724437185736</v>
       </c>
       <c r="H15">
-        <v>1354.961664827196</v>
+        <v>1370.463245356044</v>
       </c>
       <c r="I15">
-        <v>-1081.447907175572</v>
+        <v>-1087.481288570061</v>
       </c>
       <c r="J15">
-        <v>1343.634203845821</v>
+        <v>1410.142919485281</v>
       </c>
       <c r="K15">
-        <v>2704.45352534743</v>
+        <v>2824.473634609198</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.91545187497213</v>
+        <v>96.15497916617568</v>
       </c>
       <c r="G16">
-        <v>15.40741248206896</v>
+        <v>16.20939221037645</v>
       </c>
       <c r="H16">
-        <v>1485.768351647936</v>
+        <v>1480.630631100223</v>
       </c>
       <c r="I16">
-        <v>-982.1030912079492</v>
+        <v>-978.8720945880685</v>
       </c>
       <c r="J16">
-        <v>1288.298998815213</v>
+        <v>1347.38544285683</v>
       </c>
       <c r="K16">
-        <v>2917.914010517344</v>
+        <v>2934.576110209911</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.02058122888998</v>
+        <v>85.60292570394458</v>
       </c>
       <c r="G17">
-        <v>33.67265687063843</v>
+        <v>30.8724641182358</v>
       </c>
       <c r="H17">
-        <v>1396.3029061282</v>
+        <v>1405.936910342146</v>
       </c>
       <c r="I17">
-        <v>-928.1715465003437</v>
+        <v>-924.4794336013389</v>
       </c>
       <c r="J17">
-        <v>1315.409845099677</v>
+        <v>1287.568867407371</v>
       </c>
       <c r="K17">
-        <v>2993.479871371383</v>
+        <v>2864.253920987596</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>78.41004705391173</v>
+        <v>78.68842096860617</v>
       </c>
       <c r="G18">
-        <v>50.04390891784888</v>
+        <v>48.83527650439833</v>
       </c>
       <c r="H18">
-        <v>1519.292281159681</v>
+        <v>1474.857645787138</v>
       </c>
       <c r="I18">
-        <v>-897.3008507269359</v>
+        <v>-881.6350830390846</v>
       </c>
       <c r="J18">
-        <v>1181.498437527598</v>
+        <v>1209.800020880804</v>
       </c>
       <c r="K18">
-        <v>2900.967719851254</v>
+        <v>2937.640275964326</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.05347072165584</v>
+        <v>81.20425930957859</v>
       </c>
       <c r="G19">
-        <v>64.47542199784444</v>
+        <v>65.03903831221854</v>
       </c>
       <c r="H19">
-        <v>1602.851999623102</v>
+        <v>1484.969694426627</v>
       </c>
       <c r="I19">
-        <v>-889.1872573212497</v>
+        <v>-896.9673467741379</v>
       </c>
       <c r="J19">
-        <v>1150.199521079052</v>
+        <v>1117.936098866954</v>
       </c>
       <c r="K19">
-        <v>3107.00107438676</v>
+        <v>3142.064798450167</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.53446056014519</v>
+        <v>77.74749060283601</v>
       </c>
       <c r="G20">
-        <v>83.29038490180264</v>
+        <v>81.97829065986785</v>
       </c>
       <c r="H20">
-        <v>1511.198801206897</v>
+        <v>1627.282319420575</v>
       </c>
       <c r="I20">
-        <v>-806.0929590584265</v>
+        <v>-866.7211212123013</v>
       </c>
       <c r="J20">
-        <v>1160.293982037511</v>
+        <v>1110.146613386669</v>
       </c>
       <c r="K20">
-        <v>3260.754555433777</v>
+        <v>3279.897322835808</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>74.3898765241978</v>
+        <v>68.08603085715637</v>
       </c>
       <c r="G21">
-        <v>97.62060702493743</v>
+        <v>98.38189333741293</v>
       </c>
       <c r="H21">
-        <v>1538.066999534509</v>
+        <v>1511.108642697271</v>
       </c>
       <c r="I21">
-        <v>-778.9016051305085</v>
+        <v>-824.0049631809584</v>
       </c>
       <c r="J21">
-        <v>1101.204698339533</v>
+        <v>1063.641236163967</v>
       </c>
       <c r="K21">
-        <v>3339.378259051762</v>
+        <v>3158.36657506564</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.60668571713154</v>
+        <v>69.60456341659629</v>
       </c>
       <c r="G22">
-        <v>111.2460528074287</v>
+        <v>111.0494774201777</v>
       </c>
       <c r="H22">
-        <v>1686.821684253367</v>
+        <v>1641.998133116525</v>
       </c>
       <c r="I22">
-        <v>-719.9278429149673</v>
+        <v>-734.7852561944469</v>
       </c>
       <c r="J22">
-        <v>977.3674355671659</v>
+        <v>1000.86043639184</v>
       </c>
       <c r="K22">
-        <v>3119.333926128174</v>
+        <v>3175.538851628659</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.4458848761153</v>
+        <v>63.37111584643507</v>
       </c>
       <c r="G23">
-        <v>125.0916822616126</v>
+        <v>136.9182859147003</v>
       </c>
       <c r="H23">
-        <v>1589.112160762195</v>
+        <v>1649.602619903812</v>
       </c>
       <c r="I23">
-        <v>-670.441906739823</v>
+        <v>-728.5628918247403</v>
       </c>
       <c r="J23">
-        <v>994.0935412232573</v>
+        <v>977.0523559874329</v>
       </c>
       <c r="K23">
-        <v>3258.999783313006</v>
+        <v>3058.111533659344</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>60.68762687361679</v>
+        <v>66.47705490898944</v>
       </c>
       <c r="G24">
-        <v>153.9516738856384</v>
+        <v>146.0339786400291</v>
       </c>
       <c r="H24">
-        <v>1588.426962456401</v>
+        <v>1623.882870943265</v>
       </c>
       <c r="I24">
-        <v>-674.4438791044556</v>
+        <v>-656.7820304165373</v>
       </c>
       <c r="J24">
-        <v>935.8616680670691</v>
+        <v>917.7378969395404</v>
       </c>
       <c r="K24">
-        <v>3102.391144037049</v>
+        <v>3148.1935056027</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>59.17725516710881</v>
+        <v>62.20574824165421</v>
       </c>
       <c r="G25">
-        <v>166.865405403209</v>
+        <v>165.3431862300605</v>
       </c>
       <c r="H25">
-        <v>1660.42405469456</v>
+        <v>1689.236082973732</v>
       </c>
       <c r="I25">
-        <v>-577.151959686749</v>
+        <v>-621.0323843953609</v>
       </c>
       <c r="J25">
-        <v>892.1136782856382</v>
+        <v>846.5715282142314</v>
       </c>
       <c r="K25">
-        <v>3113.594821672658</v>
+        <v>3283.476100065223</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.55840925955134</v>
+        <v>59.01828921201161</v>
       </c>
       <c r="G26">
-        <v>174.9330510355275</v>
+        <v>175.3362091343518</v>
       </c>
       <c r="H26">
-        <v>1617.913665341532</v>
+        <v>1754.172673020275</v>
       </c>
       <c r="I26">
-        <v>-555.9243119727845</v>
+        <v>-551.5817550694786</v>
       </c>
       <c r="J26">
-        <v>798.0967143207127</v>
+        <v>816.1090972709736</v>
       </c>
       <c r="K26">
-        <v>3220.441502325023</v>
+        <v>3231.968208295296</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.96808166396874</v>
+        <v>55.16425254471883</v>
       </c>
       <c r="G27">
-        <v>199.8748816743273</v>
+        <v>200.4729899269075</v>
       </c>
       <c r="H27">
-        <v>1732.300771168079</v>
+        <v>1669.285416663634</v>
       </c>
       <c r="I27">
-        <v>-489.5255298966406</v>
+        <v>-476.3148174080324</v>
       </c>
       <c r="J27">
-        <v>744.9139334872162</v>
+        <v>753.1529645728903</v>
       </c>
       <c r="K27">
-        <v>3170.787207093979</v>
+        <v>3027.501770987855</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.38538560059791</v>
+        <v>55.56584578470931</v>
       </c>
       <c r="G28">
-        <v>219.5409166317683</v>
+        <v>212.0004035661419</v>
       </c>
       <c r="H28">
-        <v>1724.663264563379</v>
+        <v>1727.725635265048</v>
       </c>
       <c r="I28">
-        <v>-428.5046582159691</v>
+        <v>-448.4808565773145</v>
       </c>
       <c r="J28">
-        <v>723.6001419334095</v>
+        <v>715.7816919021934</v>
       </c>
       <c r="K28">
-        <v>2951.377346721043</v>
+        <v>3051.376524404726</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.69686301199113</v>
+        <v>53.82992066451555</v>
       </c>
       <c r="G29">
-        <v>223.8222486892957</v>
+        <v>234.7738542071312</v>
       </c>
       <c r="H29">
-        <v>1815.843358217315</v>
+        <v>1730.068653298707</v>
       </c>
       <c r="I29">
-        <v>-385.4884895853064</v>
+        <v>-368.6180337623595</v>
       </c>
       <c r="J29">
-        <v>663.5044093450874</v>
+        <v>709.3402598305021</v>
       </c>
       <c r="K29">
-        <v>2922.288365576614</v>
+        <v>2773.272003221883</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.24308840707683</v>
+        <v>55.72499869034297</v>
       </c>
       <c r="G30">
-        <v>238.647503290106</v>
+        <v>236.942888157638</v>
       </c>
       <c r="H30">
-        <v>1692.275609732279</v>
+        <v>1729.149309444911</v>
       </c>
       <c r="I30">
-        <v>-334.1084497421419</v>
+        <v>-324.2360368622649</v>
       </c>
       <c r="J30">
-        <v>665.2082021276772</v>
+        <v>636.296809875751</v>
       </c>
       <c r="K30">
-        <v>2828.838972247233</v>
+        <v>2875.716424072003</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.44959479745552</v>
+        <v>54.45950064909351</v>
       </c>
       <c r="G31">
-        <v>274.5622991427551</v>
+        <v>269.9123251572206</v>
       </c>
       <c r="H31">
-        <v>1773.047353659421</v>
+        <v>1766.543473223146</v>
       </c>
       <c r="I31">
-        <v>-276.39685329369</v>
+        <v>-276.0567111137803</v>
       </c>
       <c r="J31">
-        <v>584.5121026178804</v>
+        <v>573.8292226168105</v>
       </c>
       <c r="K31">
-        <v>2603.598455926602</v>
+        <v>2763.702498332149</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>52.55808608486784</v>
+        <v>50.86429856693142</v>
       </c>
       <c r="G32">
-        <v>286.9329250028127</v>
+        <v>266.8468362361165</v>
       </c>
       <c r="H32">
-        <v>1857.192940197981</v>
+        <v>1861.666684553526</v>
       </c>
       <c r="I32">
-        <v>-214.7147153484658</v>
+        <v>-205.8929703293716</v>
       </c>
       <c r="J32">
-        <v>524.4602644095545</v>
+        <v>551.9353149598232</v>
       </c>
       <c r="K32">
-        <v>2504.337531628508</v>
+        <v>2649.745884578445</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.80891706906247</v>
+        <v>49.75191276164244</v>
       </c>
       <c r="G33">
-        <v>286.4034225728237</v>
+        <v>283.6753608589876</v>
       </c>
       <c r="H33">
-        <v>1826.61960337969</v>
+        <v>1744.340814211216</v>
       </c>
       <c r="I33">
-        <v>-143.5716542344359</v>
+        <v>-139.7163318339937</v>
       </c>
       <c r="J33">
-        <v>508.0707247757389</v>
+        <v>478.3323917600268</v>
       </c>
       <c r="K33">
-        <v>2445.93307829353</v>
+        <v>2410.086886551846</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.8054547937869</v>
+        <v>49.50795125607585</v>
       </c>
       <c r="G34">
-        <v>322.7566377548839</v>
+        <v>313.1804684840172</v>
       </c>
       <c r="H34">
-        <v>1768.611274924824</v>
+        <v>1764.483487566475</v>
       </c>
       <c r="I34">
-        <v>-81.98573714238547</v>
+        <v>-82.88072103796391</v>
       </c>
       <c r="J34">
-        <v>430.478291834827</v>
+        <v>446.7556415859553</v>
       </c>
       <c r="K34">
-        <v>2172.310298968986</v>
+        <v>2190.445067503988</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.65419592886824</v>
+        <v>48.85292216543029</v>
       </c>
       <c r="G35">
-        <v>335.0326042391591</v>
+        <v>334.1728580689898</v>
       </c>
       <c r="H35">
-        <v>1855.170855968165</v>
+        <v>1801.228040750688</v>
       </c>
       <c r="I35">
-        <v>-17.94020630821067</v>
+        <v>-18.24773949399066</v>
       </c>
       <c r="J35">
-        <v>387.7484421489009</v>
+        <v>382.5119501645516</v>
       </c>
       <c r="K35">
-        <v>2030.184561751243</v>
+        <v>2098.444244639271</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.65070528781489</v>
+        <v>47.49258183181567</v>
       </c>
       <c r="G36">
-        <v>357.8473748797753</v>
+        <v>361.5169002020874</v>
       </c>
       <c r="H36">
-        <v>1751.175631356955</v>
+        <v>1770.903622680812</v>
       </c>
       <c r="I36">
-        <v>44.98918299534096</v>
+        <v>45.8632756822926</v>
       </c>
       <c r="J36">
-        <v>328.752339316395</v>
+        <v>354.6646160863084</v>
       </c>
       <c r="K36">
-        <v>1813.136083677141</v>
+        <v>1818.392300172087</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.0933057665337</v>
+        <v>46.02287869973948</v>
       </c>
       <c r="G37">
-        <v>360.0943970576116</v>
+        <v>351.5676001890084</v>
       </c>
       <c r="H37">
-        <v>1772.205475908426</v>
+        <v>1831.087031562048</v>
       </c>
       <c r="I37">
-        <v>116.5020198178724</v>
+        <v>110.2959006039303</v>
       </c>
       <c r="J37">
-        <v>283.6653746166311</v>
+        <v>296.1912493400021</v>
       </c>
       <c r="K37">
-        <v>1598.381215318291</v>
+        <v>1559.191065201309</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.65980313520241</v>
+        <v>46.6577965745801</v>
       </c>
       <c r="G38">
-        <v>376.5810216309833</v>
+        <v>388.8284314017262</v>
       </c>
       <c r="H38">
-        <v>1867.14796300786</v>
+        <v>1920.158683827885</v>
       </c>
       <c r="I38">
-        <v>191.0792946095236</v>
+        <v>176.4732970835676</v>
       </c>
       <c r="J38">
-        <v>254.5333150499287</v>
+        <v>253.9131746407749</v>
       </c>
       <c r="K38">
-        <v>1438.31518437636</v>
+        <v>1365.997102364694</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.98919448258378</v>
+        <v>44.76082102035579</v>
       </c>
       <c r="G39">
-        <v>402.9082636214756</v>
+        <v>398.1117401752166</v>
       </c>
       <c r="H39">
-        <v>1828.185165717066</v>
+        <v>1859.332330498665</v>
       </c>
       <c r="I39">
-        <v>256.2317367065012</v>
+        <v>266.1793410820635</v>
       </c>
       <c r="J39">
-        <v>206.623936021608</v>
+        <v>208.322683836129</v>
       </c>
       <c r="K39">
-        <v>1130.87640527444</v>
+        <v>1121.381265383609</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.49929658668248</v>
+        <v>44.00970405121761</v>
       </c>
       <c r="G40">
-        <v>418.4441708465362</v>
+        <v>429.9415238102912</v>
       </c>
       <c r="H40">
-        <v>1864.177137027782</v>
+        <v>1809.034949279137</v>
       </c>
       <c r="I40">
-        <v>313.7230613866816</v>
+        <v>336.6101738181366</v>
       </c>
       <c r="J40">
-        <v>146.2534162947127</v>
+        <v>150.1739055059296</v>
       </c>
       <c r="K40">
-        <v>893.2563500129606</v>
+        <v>868.6370535831778</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.41818164818711</v>
+        <v>44.16022716329194</v>
       </c>
       <c r="G41">
-        <v>447.7738493274078</v>
+        <v>436.4383061815958</v>
       </c>
       <c r="H41">
-        <v>1964.162715916897</v>
+        <v>1828.651216227395</v>
       </c>
       <c r="I41">
-        <v>383.6703588219397</v>
+        <v>411.0413729328541</v>
       </c>
       <c r="J41">
-        <v>104.858473366791</v>
+        <v>98.47696365790331</v>
       </c>
       <c r="K41">
-        <v>612.1027601615777</v>
+        <v>632.9700612333014</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>40.72641514701305</v>
+        <v>42.23276488799836</v>
       </c>
       <c r="G42">
-        <v>437.8413886800178</v>
+        <v>460.6191073662131</v>
       </c>
       <c r="H42">
-        <v>1844.668631673306</v>
+        <v>1888.262037929667</v>
       </c>
       <c r="I42">
-        <v>485.5461566199277</v>
+        <v>460.349698336672</v>
       </c>
       <c r="J42">
-        <v>54.34289957194689</v>
+        <v>53.47947526723421</v>
       </c>
       <c r="K42">
-        <v>344.2600555566465</v>
+        <v>347.7753022226136</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.31206880401972</v>
+        <v>42.25423793804306</v>
       </c>
       <c r="G43">
-        <v>462.9397084217377</v>
+        <v>446.8201070811199</v>
       </c>
       <c r="H43">
-        <v>1990.329771855191</v>
+        <v>1978.942423372987</v>
       </c>
       <c r="I43">
-        <v>572.2203773673036</v>
+        <v>539.4817871956354</v>
       </c>
       <c r="J43">
-        <v>5.031966969845675</v>
+        <v>5.072665431936711</v>
       </c>
       <c r="K43">
-        <v>33.79031312153375</v>
+        <v>32.32120385179444</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.680561267509</v>
+        <v>41.41940274932022</v>
       </c>
       <c r="G44">
-        <v>473.0518299004986</v>
+        <v>457.7827485211003</v>
       </c>
       <c r="H44">
-        <v>1967.610765558617</v>
+        <v>1899.309011262522</v>
       </c>
       <c r="I44">
-        <v>606.5364747827202</v>
+        <v>662.7594584970227</v>
       </c>
       <c r="J44">
-        <v>-41.43382095919119</v>
+        <v>-43.26151314503434</v>
       </c>
       <c r="K44">
-        <v>-291.3528517834538</v>
+        <v>-283.0715627246895</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.30156227675619</v>
+        <v>42.04089826168308</v>
       </c>
       <c r="G45">
-        <v>511.7177137518623</v>
+        <v>489.8514711755952</v>
       </c>
       <c r="H45">
-        <v>1950.774361962113</v>
+        <v>1898.940279314899</v>
       </c>
       <c r="I45">
-        <v>737.3601987860903</v>
+        <v>711.6715429784947</v>
       </c>
       <c r="J45">
-        <v>-89.22598014214746</v>
+        <v>-94.12592983012365</v>
       </c>
       <c r="K45">
-        <v>-636.0092104933303</v>
+        <v>-605.970635405783</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.48663422205901</v>
+        <v>39.48559065237288</v>
       </c>
       <c r="G46">
-        <v>522.6366749139657</v>
+        <v>518.1720091725011</v>
       </c>
       <c r="H46">
-        <v>1930.189473497489</v>
+        <v>1829.396481043617</v>
       </c>
       <c r="I46">
-        <v>814.0288938534887</v>
+        <v>771.4167197800278</v>
       </c>
       <c r="J46">
-        <v>-141.1780936444038</v>
+        <v>-145.9312137425802</v>
       </c>
       <c r="K46">
-        <v>-936.8984080255678</v>
+        <v>-971.2215348770176</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.29638803544777</v>
+        <v>39.27483149729884</v>
       </c>
       <c r="G47">
-        <v>524.7172212010618</v>
+        <v>505.6501711581341</v>
       </c>
       <c r="H47">
-        <v>1841.048001129015</v>
+        <v>1929.389640987124</v>
       </c>
       <c r="I47">
-        <v>883.5076897334917</v>
+        <v>895.640661650203</v>
       </c>
       <c r="J47">
-        <v>-195.4969094883405</v>
+        <v>-192.9568039269423</v>
       </c>
       <c r="K47">
-        <v>-1340.861195391665</v>
+        <v>-1364.814973930547</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.96007045398294</v>
+        <v>39.4195503063283</v>
       </c>
       <c r="G48">
-        <v>557.6654312252806</v>
+        <v>548.6873361584654</v>
       </c>
       <c r="H48">
-        <v>2005.889799332321</v>
+        <v>2022.274769242325</v>
       </c>
       <c r="I48">
-        <v>974.6938626517082</v>
+        <v>1018.110525735235</v>
       </c>
       <c r="J48">
-        <v>-239.3048261507277</v>
+        <v>-248.1383217364626</v>
       </c>
       <c r="K48">
-        <v>-1645.477842806121</v>
+        <v>-1691.582110846672</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.50367802202488</v>
+        <v>40.23417960310531</v>
       </c>
       <c r="G49">
-        <v>553.591393634459</v>
+        <v>536.9842501599363</v>
       </c>
       <c r="H49">
-        <v>1933.228615038444</v>
+        <v>1967.639558713408</v>
       </c>
       <c r="I49">
-        <v>1021.026165632781</v>
+        <v>1063.292739211819</v>
       </c>
       <c r="J49">
-        <v>-273.5983272169211</v>
+        <v>-276.8626630387658</v>
       </c>
       <c r="K49">
-        <v>-2152.333380113059</v>
+        <v>-2062.463636045195</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.50749621660778</v>
+        <v>39.35348774330928</v>
       </c>
       <c r="G50">
-        <v>565.0975295797643</v>
+        <v>582.6081591666103</v>
       </c>
       <c r="H50">
-        <v>2006.957335313057</v>
+        <v>1944.083385843287</v>
       </c>
       <c r="I50">
-        <v>1142.569513314807</v>
+        <v>1185.637342198538</v>
       </c>
       <c r="J50">
-        <v>-340.2885707015597</v>
+        <v>-322.8627737623191</v>
       </c>
       <c r="K50">
-        <v>-2481.709054755834</v>
+        <v>-2572.983087383193</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.20820740998052</v>
+        <v>38.61876766841298</v>
       </c>
       <c r="G51">
-        <v>564.9000809683536</v>
+        <v>584.7212391142968</v>
       </c>
       <c r="H51">
-        <v>1897.267940280439</v>
+        <v>1887.873640232773</v>
       </c>
       <c r="I51">
-        <v>1230.861009601055</v>
+        <v>1240.689117374348</v>
       </c>
       <c r="J51">
-        <v>-397.5089416764907</v>
+        <v>-397.9469604424814</v>
       </c>
       <c r="K51">
-        <v>-2987.057101510192</v>
+        <v>-2835.406107348313</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.81547021127714</v>
+        <v>39.07353169732609</v>
       </c>
       <c r="G52">
-        <v>592.8330605349457</v>
+        <v>601.8422473484682</v>
       </c>
       <c r="H52">
-        <v>2021.727463510856</v>
+        <v>1886.067513323729</v>
       </c>
       <c r="I52">
-        <v>1370.752924525721</v>
+        <v>1395.078720122494</v>
       </c>
       <c r="J52">
-        <v>-441.3169247156395</v>
+        <v>-451.3985490415157</v>
       </c>
       <c r="K52">
-        <v>-3370.213548081073</v>
+        <v>-3393.755320733437</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.93527699509526</v>
+        <v>35.29395908859051</v>
       </c>
       <c r="G53">
-        <v>632.1050695316882</v>
+        <v>624.2064732470633</v>
       </c>
       <c r="H53">
-        <v>2041.326354844662</v>
+        <v>2015.938486413321</v>
       </c>
       <c r="I53">
-        <v>1510.797595860824</v>
+        <v>1454.740720354912</v>
       </c>
       <c r="J53">
-        <v>-489.20105601896</v>
+        <v>-464.0270270422486</v>
       </c>
       <c r="K53">
-        <v>-3722.724663473074</v>
+        <v>-3758.251340621889</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.1238102368763</v>
+        <v>35.58211696911971</v>
       </c>
       <c r="G54">
-        <v>627.1252384122581</v>
+        <v>655.7902204413735</v>
       </c>
       <c r="H54">
-        <v>1998.254648868657</v>
+        <v>1899.795784611682</v>
       </c>
       <c r="I54">
-        <v>1618.202785862935</v>
+        <v>1486.5423258593</v>
       </c>
       <c r="J54">
-        <v>-529.8889272181128</v>
+        <v>-518.3943132448649</v>
       </c>
       <c r="K54">
-        <v>-4293.887164127905</v>
+        <v>-4348.567099459035</v>
       </c>
     </row>
   </sheetData>
